--- a/opendata_nl/merged_data.xlsx
+++ b/opendata_nl/merged_data.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amsuni-my.sharepoint.com/personal/ella_sartory_student_uva_nl/Documents/scraping/opendata_nl/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_9B4A5CDE97D9AECF8A160B53E312644B5EDA2734" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{875F377F-D843-AA45-B0E1-DD779DB44169}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -358,8 +364,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,13 +428,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -466,7 +480,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -500,6 +514,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -534,9 +549,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -709,14 +725,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -760,7 +792,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -807,7 +839,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -854,7 +886,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -901,7 +933,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -936,7 +968,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -965,7 +997,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1012,7 +1044,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1059,7 +1091,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1100,7 +1132,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1147,7 +1179,7 @@
         <v>54104</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
